--- a/gene_clustering/reduced_genes_list_27nov2020.xlsx
+++ b/gene_clustering/reduced_genes_list_27nov2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aperium/Dropbox/Projects/OSU HCS/T. kok-saghyz/Harnessing VLHSV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aperium/Documents/GitHub/Primal-to-Fluidigm/gene_clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4BDE17-8B2C-784C-B3AF-22B57374000F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A066EF-89BA-ED46-8E23-B277664C9A88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19700" yWindow="500" windowWidth="18700" windowHeight="23500" xr2:uid="{3648FF2F-0ED2-1446-ACA8-0B1133C8EBB9}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="18700" windowHeight="23500" xr2:uid="{3648FF2F-0ED2-1446-ACA8-0B1133C8EBB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="183">
   <si>
     <t>trait</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>rubber</t>
-  </si>
-  <si>
-    <t>priority</t>
   </si>
   <si>
     <t>IPPK</t>
@@ -182,9 +179,6 @@
     <t>approx. amplicons</t>
   </si>
   <si>
-    <t>High + low</t>
-  </si>
-  <si>
     <t>CPT</t>
   </si>
   <si>
@@ -640,6 +634,21 @@
   </si>
   <si>
     <t>utg13514|GWHAAAA00011849.</t>
+  </si>
+  <si>
+    <t>High + mid</t>
+  </si>
+  <si>
+    <t>High + mid + low</t>
+  </si>
+  <si>
+    <t>low_priority</t>
+  </si>
+  <si>
+    <t>mid_priority</t>
+  </si>
+  <si>
+    <t>high_priority</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872A43C6-D845-5F41-870B-60C6FB97DEAD}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1022,7 +1031,7 @@
     <col min="6" max="8" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,23 +1045,29 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1066,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
         <v>174</v>
-      </c>
-      <c r="F2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" t="s">
-        <v>176</v>
       </c>
       <c r="H2">
         <v>3401</v>
@@ -1080,28 +1095,28 @@
       <c r="I2">
         <v>8767</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
         <v>177</v>
-      </c>
-      <c r="F3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>179</v>
       </c>
       <c r="H3">
         <v>8428</v>
@@ -1109,11 +1124,11 @@
       <c r="I3">
         <v>8428</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1142,13 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" t="s">
-        <v>173</v>
       </c>
       <c r="H5">
         <v>1536</v>
@@ -1141,11 +1156,11 @@
       <c r="I5">
         <v>2587</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1159,13 +1174,13 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" t="s">
         <v>168</v>
-      </c>
-      <c r="F6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" t="s">
-        <v>170</v>
       </c>
       <c r="H6">
         <v>12888</v>
@@ -1173,11 +1188,11 @@
       <c r="I6">
         <v>1556</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1191,13 +1206,13 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
         <v>165</v>
-      </c>
-      <c r="F8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" t="s">
-        <v>167</v>
       </c>
       <c r="H8">
         <v>26006</v>
@@ -1205,11 +1220,11 @@
       <c r="I8">
         <v>1203</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1223,13 +1238,13 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
         <v>156</v>
-      </c>
-      <c r="F10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" t="s">
-        <v>158</v>
       </c>
       <c r="H10">
         <v>3416</v>
@@ -1237,11 +1252,11 @@
       <c r="I10">
         <v>4370</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1252,13 +1267,13 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" t="s">
         <v>159</v>
-      </c>
-      <c r="F11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" t="s">
-        <v>161</v>
       </c>
       <c r="H11">
         <v>3981</v>
@@ -1266,11 +1281,11 @@
       <c r="I11">
         <v>3531</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1281,13 +1296,13 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
         <v>162</v>
-      </c>
-      <c r="F12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" t="s">
-        <v>164</v>
       </c>
       <c r="H12">
         <v>3694</v>
@@ -1295,31 +1310,31 @@
       <c r="I12">
         <v>1659</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
         <v>153</v>
-      </c>
-      <c r="F14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" t="s">
-        <v>155</v>
       </c>
       <c r="H14">
         <v>1185</v>
@@ -1328,27 +1343,27 @@
         <v>1272</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
       <c r="E15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
         <v>147</v>
-      </c>
-      <c r="F15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" t="s">
-        <v>149</v>
       </c>
       <c r="H15">
         <v>3423</v>
@@ -1357,27 +1372,27 @@
         <v>2376</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
         <v>150</v>
-      </c>
-      <c r="F16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" t="s">
-        <v>152</v>
       </c>
       <c r="H16">
         <v>1443</v>
@@ -1386,10 +1401,10 @@
         <v>1536</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1403,13 +1418,13 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
         <v>144</v>
-      </c>
-      <c r="F19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" t="s">
-        <v>146</v>
       </c>
       <c r="H19">
         <v>915</v>
@@ -1418,10 +1433,10 @@
         <v>3187</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1429,19 +1444,19 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" t="s">
         <v>141</v>
-      </c>
-      <c r="F21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" t="s">
-        <v>143</v>
       </c>
       <c r="H21">
         <v>1260</v>
@@ -1449,28 +1464,28 @@
       <c r="I21">
         <v>7596</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" t="s">
         <v>138</v>
-      </c>
-      <c r="F22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" t="s">
-        <v>140</v>
       </c>
       <c r="H22">
         <v>2641</v>
@@ -1478,28 +1493,28 @@
       <c r="I22">
         <v>6272</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" t="s">
-        <v>136</v>
       </c>
       <c r="H23">
         <v>2016</v>
@@ -1508,27 +1523,27 @@
         <v>4386</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
         <v>129</v>
-      </c>
-      <c r="F24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" t="s">
-        <v>131</v>
       </c>
       <c r="H24">
         <v>2177</v>
@@ -1537,27 +1552,27 @@
         <v>6272</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" t="s">
         <v>126</v>
-      </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" t="s">
-        <v>128</v>
       </c>
       <c r="H25">
         <v>1308</v>
@@ -1566,30 +1581,30 @@
         <v>2179</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
         <v>46</v>
       </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
       <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" t="s">
         <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" t="s">
-        <v>120</v>
       </c>
       <c r="H29">
         <v>1308</v>
@@ -1597,28 +1612,28 @@
       <c r="I29">
         <v>1308</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="B30" t="s">
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
         <v>121</v>
-      </c>
-      <c r="F30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" t="s">
-        <v>123</v>
       </c>
       <c r="H30">
         <v>1215</v>
@@ -1626,28 +1641,28 @@
       <c r="I30">
         <v>1215</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="B31" t="s">
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H31">
         <v>1272</v>
@@ -1655,28 +1670,28 @@
       <c r="I31">
         <v>1272</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="B32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" t="s">
         <v>115</v>
-      </c>
-      <c r="F32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" t="s">
-        <v>117</v>
       </c>
       <c r="H32">
         <v>1707</v>
@@ -1684,28 +1699,28 @@
       <c r="I32">
         <v>3347</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" t="s">
         <v>112</v>
-      </c>
-      <c r="F33" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" t="s">
-        <v>114</v>
       </c>
       <c r="H33">
         <v>2652</v>
@@ -1713,28 +1728,28 @@
       <c r="I33">
         <v>1914</v>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" t="s">
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" t="s">
         <v>109</v>
-      </c>
-      <c r="F34" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" t="s">
-        <v>111</v>
       </c>
       <c r="H34">
         <v>3793</v>
@@ -1742,28 +1757,28 @@
       <c r="I34">
         <v>3416</v>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" t="s">
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
         <v>101</v>
-      </c>
-      <c r="F35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" t="s">
-        <v>103</v>
       </c>
       <c r="H35">
         <v>2745</v>
@@ -1771,28 +1786,28 @@
       <c r="I35">
         <v>2778</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" t="s">
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" t="s">
         <v>104</v>
-      </c>
-      <c r="F36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" t="s">
-        <v>106</v>
       </c>
       <c r="H36">
         <v>1179</v>
@@ -1800,28 +1815,28 @@
       <c r="I36">
         <v>864</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" t="s">
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H37">
         <v>2778</v>
@@ -1829,28 +1844,28 @@
       <c r="I37">
         <v>2187</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" t="s">
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
         <v>98</v>
-      </c>
-      <c r="F38" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" t="s">
-        <v>100</v>
       </c>
       <c r="H38">
         <v>2958</v>
@@ -1858,39 +1873,39 @@
       <c r="I38">
         <v>1179</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
       <c r="B39" t="s">
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
+        <v>71</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
       <c r="B40" t="s">
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s">
         <v>92</v>
-      </c>
-      <c r="F40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" t="s">
-        <v>94</v>
       </c>
       <c r="H40">
         <v>3030</v>
@@ -1898,28 +1913,28 @@
       <c r="I40">
         <v>3608</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41" t="s">
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" t="s">
         <v>95</v>
-      </c>
-      <c r="F41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" t="s">
-        <v>97</v>
       </c>
       <c r="H41">
         <v>2640</v>
@@ -1927,28 +1942,28 @@
       <c r="I41">
         <v>3608</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42" t="s">
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s">
         <v>83</v>
-      </c>
-      <c r="G42" t="s">
-        <v>85</v>
       </c>
       <c r="H42">
         <v>3187</v>
@@ -1956,28 +1971,28 @@
       <c r="I42">
         <v>1443</v>
       </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
       <c r="B43" t="s">
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" t="s">
         <v>86</v>
-      </c>
-      <c r="F43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" t="s">
-        <v>88</v>
       </c>
       <c r="H43">
         <v>1473</v>
@@ -1985,28 +2000,28 @@
       <c r="I43">
         <v>1116</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
       <c r="B44" t="s">
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s">
         <v>89</v>
-      </c>
-      <c r="F44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" t="s">
-        <v>91</v>
       </c>
       <c r="H44">
         <v>1536</v>
@@ -2014,45 +2029,70 @@
       <c r="I44">
         <v>1116</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" t="s">
         <v>43</v>
-      </c>
-      <c r="C50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51">
-        <f>COUNTIF(J:J,1)</f>
-        <v>26</v>
+        <f>COUNTIF(L:L,1)</f>
+        <v>4</v>
       </c>
       <c r="C51">
-        <f>SUMPRODUCT(I2:I49,J2:J49)</f>
-        <v>76340</v>
+        <f>SUMPRODUCT(I$2:I$49,L$2:L$49)</f>
+        <v>20997</v>
       </c>
       <c r="D51">
         <f>C51/130*0.7</f>
-        <v>411.06153846153848</v>
+        <v>113.06076923076922</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="B52">
-        <f>COUNTIF(J:J,0)+B51</f>
+        <f>COUNTIF(K:K,1)+B51</f>
+        <v>26</v>
+      </c>
+      <c r="C52">
+        <f>SUMPRODUCT(I$2:I$49,K$2:K$49)+C51</f>
+        <v>76340</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:D53" si="0">C52/130*0.7</f>
+        <v>411.06153846153848</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53">
+        <f>COUNTIF(J:J,1)+B52</f>
         <v>33</v>
+      </c>
+      <c r="C53">
+        <f>SUMPRODUCT(I$2:I$49,J$2:J$49)+C52</f>
+        <v>97548</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>525.25846153846146</v>
       </c>
     </row>
   </sheetData>
